--- a/check2.xlsx
+++ b/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,164 +558,164 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9950</t>
+          <t>6689</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>-3.94</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>208.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>185</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>129</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>25050.0</t>
+          <t>1033369214.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>115.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>-4.96</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>萬國通</t>
+          <t>伊雲谷</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>42.98</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>49.23</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>18.49</t>
+          <t>34.08</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>30.76</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>6304</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>行李箱92.29%、其他7.71% (2023年)</t>
+          <t>雲端服務98.85%、存儲類產品1.15% (2023年)</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>萬國通-塑膠工業-上櫃</t>
+          <t>伊雲谷-數位雲端-上市</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8905</t>
+          <t>6516</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>32.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>236</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -725,32 +725,32 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3273.0</t>
+          <t>22523.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>31.35</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>裕國</t>
+          <t>勤崴國際</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -760,241 +760,241 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>23.82</t>
+          <t>18.46</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>57.54</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>162.55</t>
+          <t>26.87</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>肉品52.49%、房屋25.85%、冷凍及冷藏庫租賃17.14%、蔬品3.66%、罐頭0.57%、其他0.28% (2023年)</t>
+          <t>導航軟體與車載系統35.12%、電商服務及其他29.42%、自駕營運19.18%、電子地圖10.59%、系統整合服務5.69% (2023年)</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>裕國-其他-上櫃</t>
+          <t>勤崴國際-資訊服務業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6643</t>
+          <t>6491</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>821.0</t>
+          <t>384.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>103.59</t>
+          <t>21.6</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>186</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7409921.0</t>
+          <t>516936996.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>802.0</t>
+          <t>377.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>M31</t>
+          <t>晶碩</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>47.15</t>
+          <t>135.45</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>21.27</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>14.46</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>105.68</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>29054</t>
+          <t>28860</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>技術服務83.52%、權利金收入16.48% (2023年)</t>
+          <t>隱形眼鏡99.55%、其他0.45% (2023年)</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>M31-半導體業-上櫃</t>
+          <t>晶碩-生技醫療業-上市</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>6245</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>-4.49</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>98.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>163.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>943</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>165222.0</t>
+          <t>-1211269.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>金雨</t>
+          <t>立端</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1004,286 +1004,530 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>16.16</t>
+          <t>40.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>108.27</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>12909</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>智慧建築33.69%、代工產品28.76%、智慧零售24.87%、其他11.32%、自動販賣機1.35% (2023年)</t>
+          <t>網路通訊設備(NC)91.85%、IEC7.62%、其他, 原材料及其他商品買賣0.52% (2023年)</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>金雨-電機機械-上櫃</t>
+          <t>立端-通信網路業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3169</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>111.5</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>236</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-272243.0</t>
+          <t>440258214.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>亞信</t>
+          <t>瀚宇博</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>66.03</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>24.43</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>105.68</t>
+          <t>31.47</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>25329</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>高速網路/輸出入控制晶片99.89%、其他0.11% (2023年)</t>
+          <t>印刷電路板(PCB)84.11%、EMS15.89% (2023年)</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>亞信-半導體業-上櫃</t>
+          <t>瀚宇博-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>109.5</t>
+          <t>28.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>33.37</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>53868.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>安瑞-KY</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>108.27</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>服務收入34.48%、虛擬私有網路21.68%、應用交付控制器15.95%、N-HCI/NFP15.31%、ASF8.59%、WOC3.76%、ZTNA0.23% (2023年)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>安瑞-KY-通信網路業-上櫃</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>306</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>738415577.0</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>113.5</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>長榮鋼</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>鋼鐵工業</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>524439169.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>96.6</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-1.23</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-2.42</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>長榮航太</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>62.52</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>17.81</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>49.57</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>44420</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>鋼構構件72.24%、廢棄物處理及其他27.76% (2023年)</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>長榮鋼-鋼鐵工業-上市</t>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>34386</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>航空器維修77.03%、航空器零組件22.97% (2023年)</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>長榮航太-航運業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>46526398.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>和康生</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>生醫產品96.72%、保養品3.28% (2023年)</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>和康生-生技醫療業-上市</t>
         </is>
       </c>
     </row>

--- a/check2.xlsx
+++ b/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,90 +466,95 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -558,22 +563,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6689</t>
+          <t>6823</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.94</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -583,951 +588,483 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>208.17</t>
+          <t>18.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>354</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1033369214.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>115.0</t>
+          <t>-16065.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>伊雲谷</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>數位雲端</t>
+          <t>濾能</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>42.98</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>49.23</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>34.08</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>30.76</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>6304</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>雲端服務98.85%、存儲類產品1.15% (2023年)</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>伊雲谷-數位雲端-上市</t>
+          <t>AMC化學濾網及配件72.71%、其他27.29% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>濾能-半導體業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6516</t>
+          <t>4915</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>20.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>211</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>22523.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>768450694.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>勤崴國際</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>致伸</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>18.46</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>38.96</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>57.54</t>
+          <t>34.35</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>26.87</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>導航軟體與車載系統35.12%、電商服務及其他29.42%、自駕營運19.18%、電子地圖10.59%、系統整合服務5.69% (2023年)</t>
+          <t>37539</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>勤崴國際-資訊服務業-上櫃</t>
+          <t>非電腦週邊產品61.21%、電腦周邊產品36.86%、服務收入1.93% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>致伸-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6491</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>384.0</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>21.6</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>238</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>516936996.0</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>377.0</t>
+          <t>137974.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>晶碩</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>健亞</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>135.45</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>21.27</t>
+          <t>13.24</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>30.69</t>
+          <t>169.29</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>28860</t>
+          <t>98.09</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>隱形眼鏡99.55%、其他0.45% (2023年)</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>晶碩-生技醫療業-上市</t>
+          <t>藥品製造98.23%、技術服務0.87%、其他0.82%、代理0.07% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>健亞-生技醫療業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6245</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-4.49</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.7</t>
+          <t>32.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>163.21</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>107</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-1211269.0</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>252309841.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>32.5</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>立端</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>大成鋼</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>40.01</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>29.94</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>15.49</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>108.27</t>
+          <t>25.98</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>12909</t>
+          <t>45.66</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>網路通訊設備(NC)91.85%、IEC7.62%、其他, 原材料及其他商品買賣0.52% (2023年)</t>
+          <t>80939</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>立端-通信網路業-上櫃</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5469</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>54.3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>14.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>440258214.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>53.1</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-1.67</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>-2.21</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>瀚宇博</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>66.03</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>24.43</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>31.47</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>25329</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>印刷電路板(PCB)84.11%、EMS15.89% (2023年)</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>瀚宇博-電子零組件業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3664</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>28.9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>34.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>53868.0</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>安瑞-KY</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>108.27</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1356</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>服務收入34.48%、虛擬私有網路21.68%、應用交付控制器15.95%、N-HCI/NFP15.31%、ASF8.59%、WOC3.76%、ZTNA0.23% (2023年)</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>安瑞-KY-通信網路業-上櫃</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2645</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>32.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>524439169.0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>96.6</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-1.23</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>-2.42</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>長榮航太</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>33.96</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>21.23</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>34386</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>航空器維修77.03%、航空器零組件22.97% (2023年)</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>長榮航太-航運業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1783</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>22.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>46526398.0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>和康生</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>14.97</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>24.08</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>30.69</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>3732</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>生醫產品96.72%、保養品3.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>和康生-生技醫療業-上市</t>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>大成鋼-鋼鐵工業-上市</t>
         </is>
       </c>
     </row>

--- a/check2.xlsx
+++ b/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,22 +563,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6823</t>
+          <t>9939</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>158.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18.91</t>
+          <t>72.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -598,32 +598,32 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>191</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-16065.0</t>
+          <t>361855032.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>158.5</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -633,89 +633,89 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>濾能</t>
+          <t>宏全</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>27.43</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>37.26</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>45995</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>AMC化學濾網及配件72.71%、其他27.29% (2023年)</t>
+          <t>PET瓶35.76%、飲料填充類28.03%、塑膠蓋22.54%、菸酒包材類3.24%、飲料充填-TR及TBA2.99%、標籤2.94%、鋁蓋2.23%、爪蓋1.13%、薄膜與電子包材0.66%、其他0.49% (2023年)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>濾能-半導體業-上櫃</t>
+          <t>宏全-其他-上市</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>6841</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>13.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>251</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>33</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>768450694.0</t>
+          <t>24181.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -760,89 +760,89 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>致伸</t>
+          <t>長佳智能</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>38.96</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>34.35</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>14.58</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>98.09</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>37539</t>
+          <t>8207</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>非電腦週邊產品61.21%、電腦周邊產品36.86%、服務收入1.93% (2023年)</t>
+          <t>智慧醫療業務72.14%、生技27.86% (2023年)</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>致伸-電子零組件業-上市</t>
+          <t>長佳智能-生技醫療業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>6830</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>19.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -852,32 +852,32 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>124</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>137974.0</t>
+          <t>2732163367.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -887,182 +887,436 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>健亞</t>
+          <t>汎銓</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>13.24</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>169.29</t>
+          <t>75.89</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>98.09</t>
+          <t>34.29</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>8880</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>藥品製造98.23%、技術服務0.87%、其他0.82%、代理0.07% (2023年)</t>
+          <t>分析服務100.00% (2023年)</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>健亞-生技醫療業-上櫃</t>
+          <t>汎銓-其他電子業-上市</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>3086</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-1.64</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-8165.0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>華義</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>文化創意業</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>170.64</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>4831</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>美術設計代工83.64%、線上遊戲及數位內容16.36% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>華義-文化創意業-上櫃</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2428</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>46.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>358042456.0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>164.5</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>興勤</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>20498</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>保護元件95.37%、其他4.63% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>興勤-電子零組件業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2027</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-0.92</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>19.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-50.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>252309841.0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>584361713.0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>33.9</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>大成鋼</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>鋼鐵工業</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29.94</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>10.14</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25.98</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>45.66</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>80939</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>大成鋼-鋼鐵工業-上市</t>
         </is>

--- a/check2.xlsx
+++ b/check2.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -618,17 +618,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>158.5</t>
+          <t>161.5</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -872,17 +872,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>170.5</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -999,17 +999,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>183.0</t>
+          <t>182.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>164.5</t>
+          <t>164.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>-1.2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>34.05</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">

--- a/check2.xlsx
+++ b/check2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,124 +471,144 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>短交易量o</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>遠交易量o</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>highlight</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_date</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>now_price</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>change_quote</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>diff_quote</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Type0</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Type1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Type2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>殖利率</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>每股淨值(元)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>每股營收(元)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>本益比</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>同業平均本益比</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>總市值</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>營收比重</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>now_price</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>change_quote</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>diff_quote</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Type0</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Type1</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Type2</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>殖利率</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>每股營收(元)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>本益比</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>同業平均本益比</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>總市值</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>營收比重</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9939</t>
+          <t>8927</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>158.5</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>72.93</t>
+          <t>31.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -598,196 +618,216 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>162</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>361855032.0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>161.5</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2025-01-14 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>宏全</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>北基</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>油電燃氣業</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>27.43</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>37.26</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>45995</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>PET瓶35.76%、飲料填充類28.03%、塑膠蓋22.54%、菸酒包材類3.24%、飲料充填-TR及TBA2.99%、標籤2.94%、鋁蓋2.23%、爪蓋1.13%、薄膜與電子包材0.66%、其他0.49% (2023年)</t>
+          <t>40.98</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>宏全-其他-上市</t>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>21642</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>無鉛汽油52.63%、高級柴油20.42%、無鉛汽油10.87%、無鉛汽油5.77%、其他5.26%、洗車1.53%、儲能產品1.26%、客房及餐飲0.99%、電動巴士0.66%、副油品0.54%、車輛檢查0.08% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>北基-油電燃氣業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>290355.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6841</t>
+          <t>8291</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.68</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>24181.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>長佳智能</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>尚茂</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>19.02</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>0</t>
@@ -795,54 +835,74 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>98.09</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>8207</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>智慧醫療業務72.14%、生技27.86% (2023年)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>長佳智能-生技醫療業-上櫃</t>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>尚茂-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>247.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6830</t>
+          <t>8093</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19.81</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -852,378 +912,438 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2732163367.0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>170.5</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>2025-01-07 00:00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>汎銓</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>保銳</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>60.36</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>34.29</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>8880</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>分析服務100.00% (2023年)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>汎銓-其他電子業-上市</t>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>電源供應器48.86%、其他44.45%、電腦機殼6.69% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>保銳-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>8537.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>8067</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.64</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>183.0</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>49.04</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-8165.0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>182.0</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>華義</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>志旭</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>電子通路業</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>13.03</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>170.64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>51.81</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>美術設計代工83.64%、線上遊戲及數位內容16.36% (2023年)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>華義-文化創意業-上櫃</t>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>美妝產品84.98%、儲存媒體12.08%、多媒體2.84%、家電生活週邊0.10% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>志旭-電子通路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>118.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2428</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>164.5</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>46.88</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>358042456.0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>164.0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>-0.30</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>興勤</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>科定</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>78.86</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>15.43</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>29.37</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>20498</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>保護元件95.37%、其他4.63% (2023年)</t>
+          <t>27.66</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>興勤-電子零組件業-上市</t>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>10684</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>塗裝木皮板50.47%、環保批批板43.63%、科定系統櫃2.33%、KD木地板2.12%、其他1.44% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>科定-其他-上市</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>552127.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>6569</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>163.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>30.69</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1233,92 +1353,2464 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-12-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>醫揚</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>6295</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>醫療用電腦及其配件98.54%、其他1.46% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>醫揚-生技醫療業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>15972.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6290</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2025-01-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>良維</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>12382</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>良維-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>315954.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6207</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2025-01-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>584361713.0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>34.05</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>-1.02</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>大成鋼</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>鋼鐵工業</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>雷科</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>28.4</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>SMT與雷射設備60.68%、捲裝材料38.32%、其他1.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>雷科-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>75308.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6191</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>66.9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>均線:無明顯趨勢</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>66.9</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>精成科</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>29.94</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>10.14</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>25.98</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>45.66</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>80939</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>大成鋼-鋼鐵工業-上市</t>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>46.46</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>31731</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>印刷電路板(PCB)70.10%、EMS29.90% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>精成科-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>1433803704.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>34.9</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>萬泰科</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>112.76</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>5712</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>網路線34.42%、電子線26.19%、其他18.13%、汽車及機車線10.28%、灌溉線6.89%、電腦線及高溫線2.27%、電源線1.82% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>萬泰科-通信網路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>75426.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2024-12-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>亞翔</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>58251</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>其他72.12%、無塵室工程20.22%、機電工程4.32%、製程管路工程3.35% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>亞翔-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>3839446142.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4916</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2025-01-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>事欣科</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>68.69</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>3246</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>航太及國防工業75.60%、博奕及工業電腦24.40% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>事欣科-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>183473960.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4737</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.7</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>70.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2025-01-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>66.7</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>華廣</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>血糖檢測試片69.75%、其他18.19%、血糖檢測儀套件12.06% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>華廣-生技醫療業-上市</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>35769724.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2025-01-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>34.55</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>聿新科</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>居家醫療檢測試紙59.22%、生醫保養品及代工32.79%、居家醫療檢測儀器7.88%、其他0.11% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>聿新科-生技醫療業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>20778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>49.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>三一東林</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>LED Driver45.01%、成車43.58%、其他11.40% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>三一東林-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>57008.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3516</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-53.0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>亞帝歐</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>照明燈具49.65%、連接線48.51%、塑膠射出1.25%、能源電力0.60% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>亞帝歐-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>1220.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2025-01-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>網路攝影機100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>杭特-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>15143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3284</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2025-01-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>太普高</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>183.9</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>印刷版材67.70%、不動產代銷21.57%、其他10.73% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>太普高-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>12153.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3264</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>68.9</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>65.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>68.9</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>欣銓</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>33773</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>晶圓測試73.30%、成品測試26.27%、其他0.43% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>欣銓-半導體業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2515998.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2024-12-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>神基</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>36.80</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>68.69</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>73517</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>電子元器件52.18%、機構件38.99%、航太扣件8.83% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>神基-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>765320369.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2924</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.8</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>均線:無明顯趨勢</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2025-01-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>30.8</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>宏太-KY</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>居家生活</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>嬰幼兒產品100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>宏太-KY-居家生活-上櫃</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>78.9</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2024-12-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>岱宇</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>運動休閒</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>電動跑步機52.33%、其他16.86%、橢圓機14.11%、健身車9.40%、家具7.30% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>岱宇-運動休閒-上市</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>44836511.0</t>
         </is>
       </c>
     </row>
